--- a/pred_ohlcv/54_21/2020-01-23 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-489.6578000000002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1500.1077</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1468.7216</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1468.7216</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1482.9809</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3739.466399999999</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3733.514699999999</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3455.991399999999</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-3354.534299999999</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3354.534299999999</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3459.733199999999</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3435.733199999999</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3310.199899999998</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3119.276599999998</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3101.686999999999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3083.030299999999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3193.454899999999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3348.662699999999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2767.347799999999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2778.547799999999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2139.343699999999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2139.343699999999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-489.6578000000002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1500.1077</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1468.7216</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1468.7216</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2573.2723</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2573.1803</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2714.2972</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2731.5841</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3509.0792</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3739.466399999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3733.514699999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3455.991399999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3436.471199999999</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-3354.534299999999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3354.534299999999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3459.733199999999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3435.733199999999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3431.406599999999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-3031.406599999999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3030.406599999999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3310.199899999998</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3119.276599999998</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3101.686999999999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3083.030299999999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3193.454899999999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3348.662699999999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2767.347799999999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2778.547799999999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2139.343699999999</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2139.343699999999</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
